--- a/branches/master/StructureDefinition-BeBevolkingsonderzoek.xlsx
+++ b/branches/master/StructureDefinition-BeBevolkingsonderzoek.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="633" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="697" uniqueCount="142">
   <si>
     <t>Property</t>
   </si>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-30T15:39:36+00:00</t>
+    <t>2022-04-06T16:28:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -105,7 +105,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Base</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Element</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -237,13 +237,80 @@
     <t>*</t>
   </si>
   <si>
-    <t>Base</t>
+    <t>Base for all elements</t>
+  </si>
+  <si>
+    <t>Element</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>BeBevolkingsonderzoek.id</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
+  </si>
+  <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>BeBevolkingsonderzoek.extension</t>
+  </si>
+  <si>
+    <t>extensions
+user content</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension
+</t>
+  </si>
+  <si>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
   <si>
     <t>BeBevolkingsonderzoek.patient</t>
-  </si>
-  <si>
-    <t>1</t>
   </si>
   <si>
     <t xml:space="preserve">Reference(Patient)
@@ -267,10 +334,6 @@
   </si>
   <si>
     <t>BeBevolkingsonderzoek.screeningYear</t>
-  </si>
-  <si>
-    <t xml:space="preserve">string
-</t>
   </si>
   <si>
     <t>The calender year of the screening.</t>
@@ -710,7 +773,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AJ19"/>
+  <dimension ref="A1:AJ21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -721,7 +784,7 @@
   <cols>
     <col min="1" max="1" width="52.75390625" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="12.65625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="8.95703125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="12.64453125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="5.4296875" customWidth="true" bestFit="true"/>
@@ -746,7 +809,7 @@
     <col min="25" max="25" width="19.625" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="20.58984375" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="42.03125" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="17.2109375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="52.75390625" customWidth="true" bestFit="true" hidden="true"/>
@@ -894,7 +957,9 @@
       <c r="J2" t="s" s="2">
         <v>71</v>
       </c>
-      <c r="K2" s="2"/>
+      <c r="K2" t="s" s="2">
+        <v>74</v>
+      </c>
       <c r="L2" t="s" s="2">
         <v>21</v>
       </c>
@@ -947,7 +1012,7 @@
         <v>71</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AF2" t="s" s="2">
         <v>72</v>
@@ -956,18 +1021,18 @@
         <v>73</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>71</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
@@ -975,10 +1040,10 @@
       </c>
       <c r="D3" s="2"/>
       <c r="E3" t="s" s="2">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F3" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="G3" t="s" s="2">
         <v>71</v>
@@ -990,13 +1055,13 @@
         <v>71</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
@@ -1047,13 +1112,13 @@
         <v>71</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="AH3" t="s" s="2">
         <v>71</v>
@@ -1062,23 +1127,23 @@
         <v>71</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>71</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
-        <v>71</v>
+        <v>86</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" t="s" s="2">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F4" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G4" t="s" s="2">
         <v>71</v>
@@ -1090,15 +1155,17 @@
         <v>71</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="M4" s="2"/>
+        <v>89</v>
+      </c>
+      <c r="M4" t="s" s="2">
+        <v>90</v>
+      </c>
       <c r="N4" s="2"/>
       <c r="O4" t="s" s="2">
         <v>71</v>
@@ -1135,39 +1202,39 @@
         <v>71</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>71</v>
+        <v>91</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>71</v>
+        <v>92</v>
       </c>
       <c r="AC4" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>71</v>
+        <v>93</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="AH4" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>71</v>
+        <v>95</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>71</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
@@ -1175,10 +1242,10 @@
       </c>
       <c r="D5" s="2"/>
       <c r="E5" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="F5" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="G5" t="s" s="2">
         <v>71</v>
@@ -1190,13 +1257,13 @@
         <v>71</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
@@ -1247,13 +1314,13 @@
         <v>71</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="AH5" t="s" s="2">
         <v>71</v>
@@ -1267,7 +1334,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
@@ -1275,10 +1342,10 @@
       </c>
       <c r="D6" s="2"/>
       <c r="E6" t="s" s="2">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="G6" t="s" s="2">
         <v>71</v>
@@ -1290,13 +1357,13 @@
         <v>71</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>90</v>
+        <v>102</v>
       </c>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
@@ -1347,13 +1414,13 @@
         <v>71</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="AH6" t="s" s="2">
         <v>71</v>
@@ -1367,7 +1434,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
@@ -1375,10 +1442,10 @@
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="F7" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="G7" t="s" s="2">
         <v>71</v>
@@ -1390,13 +1457,13 @@
         <v>71</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>93</v>
+        <v>105</v>
       </c>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
@@ -1447,13 +1514,13 @@
         <v>71</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="AH7" t="s" s="2">
         <v>71</v>
@@ -1467,7 +1534,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>94</v>
+        <v>106</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
@@ -1478,7 +1545,7 @@
         <v>72</v>
       </c>
       <c r="F8" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="G8" t="s" s="2">
         <v>71</v>
@@ -1490,13 +1557,13 @@
         <v>71</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>84</v>
+        <v>107</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>95</v>
+        <v>108</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>96</v>
+        <v>109</v>
       </c>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
@@ -1547,13 +1614,13 @@
         <v>71</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>94</v>
+        <v>106</v>
       </c>
       <c r="AF8" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="AH8" t="s" s="2">
         <v>71</v>
@@ -1567,7 +1634,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>97</v>
+        <v>110</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
@@ -1575,10 +1642,10 @@
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="F9" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="G9" t="s" s="2">
         <v>71</v>
@@ -1590,13 +1657,13 @@
         <v>71</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>84</v>
+        <v>111</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>98</v>
+        <v>112</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>96</v>
+        <v>112</v>
       </c>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
@@ -1647,13 +1714,13 @@
         <v>71</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>97</v>
+        <v>110</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="AH9" t="s" s="2">
         <v>71</v>
@@ -1667,7 +1734,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>99</v>
+        <v>113</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
@@ -1678,7 +1745,7 @@
         <v>72</v>
       </c>
       <c r="F10" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="G10" t="s" s="2">
         <v>71</v>
@@ -1690,13 +1757,13 @@
         <v>71</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>100</v>
+        <v>114</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>101</v>
+        <v>115</v>
       </c>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
@@ -1747,13 +1814,13 @@
         <v>71</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>99</v>
+        <v>113</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="AH10" t="s" s="2">
         <v>71</v>
@@ -1767,7 +1834,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>102</v>
+        <v>116</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
@@ -1775,10 +1842,10 @@
       </c>
       <c r="D11" s="2"/>
       <c r="E11" t="s" s="2">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F11" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="G11" t="s" s="2">
         <v>71</v>
@@ -1790,13 +1857,13 @@
         <v>71</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>103</v>
+        <v>117</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>103</v>
+        <v>115</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
@@ -1847,13 +1914,13 @@
         <v>71</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>102</v>
+        <v>116</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="AH11" t="s" s="2">
         <v>71</v>
@@ -1867,7 +1934,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -1878,7 +1945,7 @@
         <v>72</v>
       </c>
       <c r="F12" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="G12" t="s" s="2">
         <v>71</v>
@@ -1890,13 +1957,13 @@
         <v>71</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>84</v>
+        <v>107</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>105</v>
+        <v>119</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>96</v>
+        <v>120</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -1947,13 +2014,13 @@
         <v>71</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="AH12" t="s" s="2">
         <v>71</v>
@@ -1967,7 +2034,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>106</v>
+        <v>121</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -1975,10 +2042,10 @@
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="F13" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="G13" t="s" s="2">
         <v>71</v>
@@ -1990,13 +2057,13 @@
         <v>71</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>84</v>
+        <v>111</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>107</v>
+        <v>122</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>96</v>
+        <v>122</v>
       </c>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
@@ -2047,13 +2114,13 @@
         <v>71</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>106</v>
+        <v>121</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="AH13" t="s" s="2">
         <v>71</v>
@@ -2067,7 +2134,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>108</v>
+        <v>123</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -2078,7 +2145,7 @@
         <v>72</v>
       </c>
       <c r="F14" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="G14" t="s" s="2">
         <v>71</v>
@@ -2090,13 +2157,13 @@
         <v>71</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>109</v>
+        <v>124</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
@@ -2147,13 +2214,13 @@
         <v>71</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>108</v>
+        <v>123</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="AH14" t="s" s="2">
         <v>71</v>
@@ -2167,7 +2234,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>111</v>
+        <v>125</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -2178,7 +2245,7 @@
         <v>72</v>
       </c>
       <c r="F15" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="G15" t="s" s="2">
         <v>71</v>
@@ -2190,13 +2257,13 @@
         <v>71</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>112</v>
+        <v>126</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
@@ -2247,13 +2314,13 @@
         <v>71</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>111</v>
+        <v>125</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="AH15" t="s" s="2">
         <v>71</v>
@@ -2267,7 +2334,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>114</v>
+        <v>127</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -2278,7 +2345,7 @@
         <v>72</v>
       </c>
       <c r="F16" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="G16" t="s" s="2">
         <v>71</v>
@@ -2290,13 +2357,13 @@
         <v>71</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>115</v>
+        <v>100</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>116</v>
+        <v>128</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
@@ -2347,13 +2414,13 @@
         <v>71</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>114</v>
+        <v>127</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="AH16" t="s" s="2">
         <v>71</v>
@@ -2367,7 +2434,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>117</v>
+        <v>130</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -2378,7 +2445,7 @@
         <v>72</v>
       </c>
       <c r="F17" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="G17" t="s" s="2">
         <v>71</v>
@@ -2390,13 +2457,13 @@
         <v>71</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>84</v>
+        <v>100</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>118</v>
+        <v>132</v>
       </c>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
@@ -2447,13 +2514,13 @@
         <v>71</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>117</v>
+        <v>130</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="AH17" t="s" s="2">
         <v>71</v>
@@ -2467,7 +2534,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -2478,7 +2545,7 @@
         <v>72</v>
       </c>
       <c r="F18" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="G18" t="s" s="2">
         <v>71</v>
@@ -2490,13 +2557,13 @@
         <v>71</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>115</v>
+        <v>134</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>120</v>
+        <v>135</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>120</v>
+        <v>135</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
@@ -2547,13 +2614,13 @@
         <v>71</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="AH18" t="s" s="2">
         <v>71</v>
@@ -2567,7 +2634,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>121</v>
+        <v>136</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -2575,10 +2642,10 @@
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F19" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>71</v>
@@ -2590,13 +2657,13 @@
         <v>71</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>122</v>
+        <v>137</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>122</v>
+        <v>137</v>
       </c>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
@@ -2647,13 +2714,13 @@
         <v>71</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>121</v>
+        <v>136</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="AH19" t="s" s="2">
         <v>71</v>
@@ -2662,6 +2729,206 @@
         <v>71</v>
       </c>
       <c r="AJ19" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="B20" s="2"/>
+      <c r="C20" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="D20" s="2"/>
+      <c r="E20" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="F20" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G20" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H20" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I20" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J20" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="K20" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="L20" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="M20" s="2"/>
+      <c r="N20" s="2"/>
+      <c r="O20" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="P20" s="2"/>
+      <c r="Q20" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="R20" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S20" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T20" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U20" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V20" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W20" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X20" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y20" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z20" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA20" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB20" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC20" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD20" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE20" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="AF20" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AG20" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH20" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AI20" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AJ20" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="B21" s="2"/>
+      <c r="C21" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="D21" s="2"/>
+      <c r="E21" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="F21" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G21" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H21" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I21" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J21" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K21" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="L21" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="M21" s="2"/>
+      <c r="N21" s="2"/>
+      <c r="O21" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="P21" s="2"/>
+      <c r="Q21" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="R21" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S21" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T21" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U21" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V21" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W21" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X21" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y21" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z21" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA21" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB21" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC21" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD21" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE21" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="AF21" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AG21" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH21" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AI21" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AJ21" t="s" s="2">
         <v>71</v>
       </c>
     </row>

--- a/branches/master/StructureDefinition-BeBevolkingsonderzoek.xlsx
+++ b/branches/master/StructureDefinition-BeBevolkingsonderzoek.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-06T16:28:25+00:00</t>
+    <t>2022-04-08T16:35:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-BeBevolkingsonderzoek.xlsx
+++ b/branches/master/StructureDefinition-BeBevolkingsonderzoek.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-08T16:35:46+00:00</t>
+    <t>2022-04-11T16:06:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-BeBevolkingsonderzoek.xlsx
+++ b/branches/master/StructureDefinition-BeBevolkingsonderzoek.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-11T16:06:52+00:00</t>
+    <t>2022-04-12T10:44:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
